--- a/Proyectos/2016/1/P1435 - CFACMO, Maria Berlanga_AG/Planeación/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1435 - CFACMO, Maria Berlanga_AG/Planeación/Plan_de_proyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -643,15 +643,6 @@
     <t>alma.garcia@sos-soft.com</t>
   </si>
   <si>
-    <t>Roles Equipo &lt;Irmalu Hinojosa&gt;</t>
-  </si>
-  <si>
-    <t>Irmalu Hinojosa</t>
-  </si>
-  <si>
-    <t>forevercom11@gmail.com</t>
-  </si>
-  <si>
     <t>Alma García</t>
   </si>
   <si>
@@ -671,6 +662,15 @@
   </si>
   <si>
     <t>https://contpaqi911.bitrix24.com/crm/deal/show/14798/</t>
+  </si>
+  <si>
+    <t>Maria Berlanga</t>
+  </si>
+  <si>
+    <t>Roles Equipo &lt;Maria Berlanga</t>
+  </si>
+  <si>
+    <t>maria@caixapro.com</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="145" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="145"/>
     </row>
@@ -2373,7 +2373,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="144"/>
     </row>
@@ -2391,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="146" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="146"/>
     </row>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="151" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" s="151"/>
       <c r="C26" s="10"/>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" s="149"/>
     </row>
@@ -4727,11 +4727,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4741,6 +4736,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4754,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -4927,13 +4927,13 @@
         <v>65</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="25">
-        <v>528183316566</v>
-      </c>
-      <c r="D13" s="142" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="C13" s="143">
+        <v>523338245930</v>
+      </c>
+      <c r="D13" s="143" t="s">
+        <v>169</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>66</v>
@@ -4993,10 +4993,11 @@
     <hyperlink ref="D9" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D13" r:id="rId6"/>
+    <hyperlink ref="C13" r:id="rId6" tooltip="+523338245930" display="callto:+523338245930"/>
+    <hyperlink ref="D13" r:id="rId7" tooltip="maria@caixapro.com" display="mailto:maria@caixapro.com?cc=info%40sos-soft.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
+  <pageSetup paperSize="0" firstPageNumber="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -9300,10 +9301,10 @@
         <v>79</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>80</v>
@@ -9333,7 +9334,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>85</v>
@@ -9643,7 +9644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
